--- a/7. Návody pro ocenění/Stužky.xlsx
+++ b/7. Návody pro ocenění/Stužky.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpesek\Documents\Projekty\BattleField2Ranks\7. Návody pro ocenění\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpesek\Documents\Final Projects\BFHQ\7. Návody pro ocenění\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2435C4-1466-461C-9FCB-06D586405E8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4109D208-D8D3-48AB-8964-CE4D78FEAE23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,24 +163,6 @@
     <t>kills3</t>
   </si>
   <si>
-    <t>zahrát si mapu Daqing Oilfields</t>
-  </si>
-  <si>
-    <t>zahrát si mapu Dalian Plant</t>
-  </si>
-  <si>
-    <t>zahrát si mapu Dragon Valley</t>
-  </si>
-  <si>
-    <t>zahrát si mapu FuShe Pass</t>
-  </si>
-  <si>
-    <t>zahrát si mapu Songhua Stalemate</t>
-  </si>
-  <si>
-    <t>zahrát si mapu Wake Island 2007</t>
-  </si>
-  <si>
     <t>maps</t>
   </si>
   <si>
@@ -190,27 +172,6 @@
     <t>Středovýchodní služební stuha</t>
   </si>
   <si>
-    <t>zahrát si mapu Kubra Dam</t>
-  </si>
-  <si>
-    <t>zahrát si mapu Mashtuur City</t>
-  </si>
-  <si>
-    <t>zahrát si mapu Operation Clean Sweep</t>
-  </si>
-  <si>
-    <t>zahrát si mapu Zatar Wetlands</t>
-  </si>
-  <si>
-    <t>zahrát si mapu Strike at Karkand</t>
-  </si>
-  <si>
-    <t>zahrát si mapu Sharqi Peninsula</t>
-  </si>
-  <si>
-    <t>zahrát si mapu Gulf of Oman</t>
-  </si>
-  <si>
     <t>Stuha za dobré chování</t>
   </si>
   <si>
@@ -350,6 +311,45 @@
   </si>
   <si>
     <t>Stuha důstojníka pěchoty</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Daqing Oilfields</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Dalian Plant</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Dragon Valley</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu FuShe Pass</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Songhua Stalemate</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Wake Island 2007</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Kubra Dam</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Mashtuur City</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Zatar Wetlands</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Operation Clean Sweep</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Strike at Karkand</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Sharqi Peninsula</t>
+  </si>
+  <si>
+    <t>Zahrát si mapu Gulf of Oman</t>
   </si>
 </sst>
 </file>
@@ -482,11 +482,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -494,14 +491,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -509,8 +506,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1705,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:C59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1722,42 +1722,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
@@ -1767,58 +1767,58 @@
       <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>10</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>3240102</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1833,14 +1833,14 @@
       <c r="G7" s="9">
         <v>5</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="17">
         <v>3190318</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1853,104 +1853,104 @@
       <c r="G8" s="9">
         <v>13</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="17">
         <v>1</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>180</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>3040718</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>5</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -1965,44 +1965,44 @@
       <c r="G15" s="9">
         <v>180</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="17">
         <v>3040109</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="17">
         <v>11</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>5</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -2017,86 +2017,86 @@
       <c r="G18" s="8">
         <v>10</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>3240301</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>18</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>6</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="17">
         <v>1200</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="17">
         <v>3190118</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="10" t="s">
         <v>35</v>
       </c>
@@ -2109,574 +2109,574 @@
       <c r="G24" s="9">
         <v>19</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="A25" s="14">
         <v>7</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>900</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <v>3190105</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <v>19</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
+      <c r="A30" s="14">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="17">
         <v>900</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="17">
         <v>3190803</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="15" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="17">
         <v>19</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+      <c r="A34" s="14">
         <v>9</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="F34" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G34" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <v>3190605</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="G35" s="8">
         <v>101</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="7" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G36" s="8">
         <v>102</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="7" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G37" s="8">
         <v>103</v>
       </c>
-      <c r="H37" s="16"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="7" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G38" s="8">
         <v>105</v>
       </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="7" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G39" s="8">
         <v>601</v>
       </c>
-      <c r="H39" s="16"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
+      <c r="A40" s="14">
         <v>10</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="14" t="s">
-        <v>52</v>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="17">
         <v>3191305</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="5" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G41" s="9">
         <v>1</v>
       </c>
-      <c r="H41" s="15"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="5" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G42" s="9">
         <v>2</v>
       </c>
-      <c r="H42" s="15"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="5" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G43" s="9">
         <v>3</v>
       </c>
-      <c r="H43" s="15"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="5" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G44" s="9">
         <v>4</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="5" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G45" s="9">
         <v>5</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="14"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="5" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G46" s="9">
         <v>6</v>
       </c>
-      <c r="H46" s="15"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18">
+      <c r="A47" s="14">
         <v>11</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
-        <v>73</v>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G47" s="8">
         <v>1680</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="15">
         <v>3151920</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="16">
+      <c r="F48" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="15">
         <v>50</v>
       </c>
-      <c r="H48" s="16"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18">
+      <c r="A50" s="14">
         <v>12</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="15" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" s="15">
+      <c r="F50" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="17">
         <v>1560</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="17">
         <v>3211305</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="14"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="12" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G52" s="13">
         <v>40</v>
       </c>
-      <c r="H52" s="15"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18">
+      <c r="A53" s="14">
         <v>13</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17" t="s">
-        <v>106</v>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G53" s="8">
         <v>250</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="15">
         <v>3150914</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="16" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="16">
+      <c r="F54" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="15">
         <v>1500</v>
       </c>
-      <c r="H54" s="16"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18">
+      <c r="A56" s="14">
         <v>14</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="22" t="s">
-        <v>60</v>
+      <c r="B56" s="17"/>
+      <c r="C56" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G56" s="12">
         <v>3000</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="20">
         <v>3240703</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="22"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="12" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>15</v>
@@ -2687,202 +2687,202 @@
       <c r="G57" s="12">
         <v>14</v>
       </c>
-      <c r="H57" s="21"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" s="22" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" s="22">
+      <c r="F58" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="21">
         <v>0</v>
       </c>
-      <c r="H58" s="21"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="21"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="60" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18">
+      <c r="A60" s="14">
         <v>15</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17" t="s">
-        <v>83</v>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G60" s="8">
         <v>36000</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="15">
         <v>3190409</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G61" s="8">
         <v>36000</v>
       </c>
-      <c r="H61" s="16"/>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G62" s="8">
         <v>36000</v>
       </c>
-      <c r="H62" s="16"/>
+      <c r="H62" s="15"/>
     </row>
     <row r="63" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G63" s="8">
         <v>15</v>
       </c>
-      <c r="H63" s="16"/>
+      <c r="H63" s="15"/>
     </row>
     <row r="64" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="18">
+      <c r="A64" s="14">
         <v>16</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="14" t="s">
-        <v>86</v>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G64" s="9">
         <v>90000</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="17">
         <v>3212201</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="14"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G65" s="9">
         <v>90000</v>
       </c>
-      <c r="H65" s="15"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="14"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G66" s="9">
         <v>45</v>
       </c>
-      <c r="H66" s="15"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18">
+      <c r="A67" s="14">
         <v>17</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17" t="s">
-        <v>104</v>
+      <c r="B67" s="15"/>
+      <c r="C67" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G67" s="8">
         <v>720000</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H67" s="15">
         <v>3241213</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="7" t="s">
         <v>30</v>
       </c>
@@ -2895,197 +2895,147 @@
       <c r="G68" s="8">
         <v>10</v>
       </c>
-      <c r="H68" s="16"/>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G69" s="8">
         <v>8</v>
       </c>
-      <c r="H69" s="16"/>
+      <c r="H69" s="15"/>
     </row>
     <row r="70" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G70" s="8">
         <v>50</v>
       </c>
-      <c r="H70" s="16"/>
+      <c r="H70" s="15"/>
     </row>
     <row r="71" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="18">
+      <c r="A71" s="14">
         <v>18</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="14" t="s">
-        <v>102</v>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G71" s="9">
         <v>25000</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="17">
         <v>3242303</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="14"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="10" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G72" s="9">
         <v>360000</v>
       </c>
-      <c r="H72" s="15"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="14"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G73" s="9">
         <v>200</v>
       </c>
-      <c r="H73" s="15"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="15"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H40:H46"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="B40:B46"/>
@@ -3104,49 +3054,99 @@
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="G48:G49"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H40:H46"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H64:H66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
